--- a/RabiConfig/xlsx/BattleUnitPeopleText.xlsx
+++ b/RabiConfig/xlsx/BattleUnitPeopleText.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>BattleUnitPeopleText</t>
   </si>
@@ -51,25 +51,22 @@
     <t>BeforeExecute</t>
   </si>
   <si>
-    <t>谁来救救我..,我们在这里,这是上天的惩罚吗</t>
+    <t>Who can save me,dont leave me alone,we are here</t>
   </si>
   <si>
     <t>DuringExecute</t>
   </si>
   <si>
-    <t>为什么救援队还没来</t>
-  </si>
-  <si>
     <t>OnDie</t>
   </si>
   <si>
-    <t>不....</t>
+    <t>Oh no....,I feel so painful,I....</t>
   </si>
   <si>
     <t>OnHelp</t>
   </si>
   <si>
-    <t>得救了</t>
+    <t>Thank you!Finally rescued!You are my hero</t>
   </si>
 </sst>
 </file>
@@ -82,14 +79,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,139 +550,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1106,28 +1096,26 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/RabiConfig/xlsx/BattleUnitPeopleText.xlsx
+++ b/RabiConfig/xlsx/BattleUnitPeopleText.xlsx
@@ -66,7 +66,7 @@
     <t>OnHelp</t>
   </si>
   <si>
-    <t>Thank you!Finally rescued!You are my hero</t>
+    <t>Thank you!,Finally rescued!,You are my hero</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
